--- a/biology/Microbiologie/Amycolatopsis/Amycolatopsis.xlsx
+++ b/biology/Microbiologie/Amycolatopsis/Amycolatopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amycolatopsis est un genre de bactéries à Gram positif de l'ordre des Actinomycetales. Toutes les espèces d'Amycolatopsis ont un taux de GC élevé et produisent des antibiotiques, tels que la ristocétine et des glycopeptides comme la rifamycine et la vancomycine. Ces microorganismes jouent un rôle écologique important car ils sont capables de dégrader des composés habituellement difficiles à éliminer, tels que le méthanol et la kératine. Certaines espèces sont tolérantes aux métaux lourds et aux concentrations élevées de nickel ou de cuivre. Certaines souches peuvent également produire de la vanilline à partir de l'acide férulique.
 </t>
